--- a/data-raw/2020-obtn-by-county.xlsx
+++ b/data-raw/2020-obtn-by-county.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caplans\Dropbox\ ObtN 2019-2020\2020 ObtN\2020 ObtN Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Documents/Work/TFFF/OBTN/obtn/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF93A5A-E2EB-2C4E-AB1D-09F59008AC13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="1185" windowWidth="26805" windowHeight="16035"/>
+    <workbookView xWindow="35160" yWindow="1180" windowWidth="26800" windowHeight="16040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Population" sheetId="6" r:id="rId1"/>
@@ -672,9 +673,6 @@
     <t>Coos Bay</t>
   </si>
   <si>
-    <t>Prinville</t>
-  </si>
-  <si>
     <t>Brookings</t>
   </si>
   <si>
@@ -826,12 +824,15 @@
   </si>
   <si>
     <t>Computer and Electronic Product Manufacturing</t>
+  </si>
+  <si>
+    <t>Prineville</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1222,14 +1223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
@@ -1557,16 +1558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="102">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="112">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2733,16 +2734,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AK40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" ht="25.5">
+    <row r="1" spans="1:37" s="5" customFormat="1" ht="28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7268,16 +7269,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7296,13 +7297,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" t="s">
         <v>245</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>246</v>
-      </c>
-      <c r="D2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -7310,13 +7311,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
         <v>245</v>
       </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -7324,13 +7325,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -7338,13 +7339,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -7352,13 +7353,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -7366,13 +7367,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -7380,13 +7381,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -7394,13 +7395,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -7408,13 +7409,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
         <v>246</v>
       </c>
-      <c r="C10" t="s">
-        <v>247</v>
-      </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -7422,13 +7423,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -7436,13 +7437,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" t="s">
         <v>252</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>253</v>
-      </c>
-      <c r="D12" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -7450,13 +7451,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -7464,13 +7465,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
         <v>245</v>
-      </c>
-      <c r="C14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -7478,13 +7479,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -7492,13 +7493,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
         <v>246</v>
       </c>
-      <c r="C16" t="s">
-        <v>247</v>
-      </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -7506,13 +7507,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
         <v>245</v>
       </c>
-      <c r="C17" t="s">
-        <v>246</v>
-      </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -7520,13 +7521,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" t="s">
         <v>246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -7534,13 +7535,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
         <v>245</v>
       </c>
-      <c r="C19" t="s">
-        <v>246</v>
-      </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -7548,13 +7549,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -7562,13 +7563,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" t="s">
         <v>245</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>246</v>
-      </c>
-      <c r="D21" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -7576,13 +7577,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -7590,13 +7591,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" t="s">
         <v>245</v>
       </c>
-      <c r="C23" t="s">
-        <v>246</v>
-      </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
@@ -7604,13 +7605,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
         <v>245</v>
       </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
       <c r="D24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -7618,13 +7619,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" t="s">
         <v>246</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -7632,13 +7633,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
         <v>259</v>
-      </c>
-      <c r="C26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
@@ -7646,13 +7647,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
         <v>245</v>
       </c>
-      <c r="C27" t="s">
-        <v>246</v>
-      </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -7660,13 +7661,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
         <v>245</v>
       </c>
-      <c r="C28" t="s">
-        <v>246</v>
-      </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -7674,13 +7675,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -7688,13 +7689,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -7702,13 +7703,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
@@ -7716,13 +7717,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" t="s">
         <v>245</v>
       </c>
-      <c r="C32" t="s">
-        <v>246</v>
-      </c>
       <c r="D32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -7730,13 +7731,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -7744,13 +7745,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -7758,13 +7759,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -7772,13 +7773,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -7786,13 +7787,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" t="s">
         <v>245</v>
       </c>
-      <c r="C37" t="s">
-        <v>246</v>
-      </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -7810,13 +7811,13 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7825,16 +7826,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -7842,13 +7843,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1">
@@ -8369,16 +8370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -8386,13 +8387,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1">
@@ -8928,16 +8929,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9260,16 +9261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9598,16 +9599,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9936,16 +9937,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -10274,17 +10275,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
@@ -10369,7 +10370,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="C8">
         <v>9748</v>
@@ -10380,7 +10381,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9">
         <v>6413</v>
@@ -10391,7 +10392,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10">
         <v>90500</v>
@@ -10402,7 +10403,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11">
         <v>22988</v>
@@ -10413,7 +10414,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12">
         <v>655</v>
@@ -10424,7 +10425,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13">
         <v>2251</v>
@@ -10435,7 +10436,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14">
         <v>2756</v>
@@ -10457,7 +10458,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16">
         <v>80051</v>
@@ -10468,7 +10469,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17">
         <v>6674</v>
@@ -10479,7 +10480,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C18">
         <v>37201</v>
@@ -10490,7 +10491,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19">
         <v>21138</v>
@@ -10501,7 +10502,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20">
         <v>2765</v>
@@ -10512,7 +10513,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21">
         <v>165997</v>
@@ -10523,7 +10524,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22">
         <v>10381</v>
@@ -10534,7 +10535,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23">
         <v>52736</v>
@@ -10545,7 +10546,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24">
         <v>10997</v>
@@ -10556,7 +10557,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25">
         <v>166756</v>
@@ -10567,7 +10568,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26">
         <v>3340</v>
@@ -10589,7 +10590,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28">
         <v>166756</v>
@@ -10622,7 +10623,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C31">
         <v>17346</v>
@@ -10633,7 +10634,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32">
         <v>13103</v>
@@ -10644,7 +10645,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33">
         <v>1990</v>
@@ -10655,7 +10656,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34">
         <v>15320</v>
@@ -10677,7 +10678,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36">
         <v>503</v>
@@ -10688,7 +10689,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37">
         <v>33662</v>
@@ -10709,16 +10710,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -10743,7 +10744,7 @@
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -11254,14 +11255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
@@ -11676,7 +11677,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
@@ -11710,7 +11711,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
@@ -11728,7 +11729,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
@@ -11760,7 +11761,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
@@ -11840,7 +11841,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
@@ -11872,7 +11873,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
@@ -11887,16 +11888,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/data-raw/2020-obtn-by-county.xlsx
+++ b/data-raw/2020-obtn-by-county.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Documents/Work/TFFF/OBTN/obtn/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\ ObtN 2019-2020\2020 ObtN\2020 ObtN Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF93A5A-E2EB-2C4E-AB1D-09F59008AC13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7248D11A-77DA-4F7B-976C-4FEB1F23A4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="1180" windowWidth="26800" windowHeight="16040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Population" sheetId="6" r:id="rId1"/>
@@ -28,21 +28,36 @@
     <sheet name="Life Expectancy" sheetId="16" r:id="rId13"/>
     <sheet name="ALICE" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">ALICE!$A$1:$F$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Race Ethnicity'!$A$1:$I$37</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="265">
   <si>
     <t>Geography</t>
   </si>
   <si>
+    <t>Population</t>
+  </si>
+  <si>
     <t>Baker</t>
   </si>
   <si>
@@ -151,10 +166,118 @@
     <t>Yamhill</t>
   </si>
   <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Percent Rural</t>
+  </si>
+  <si>
+    <t>Net Migration</t>
+  </si>
+  <si>
+    <t>Land Area</t>
+  </si>
+  <si>
+    <t>Publicly-Owned Lands</t>
+  </si>
+  <si>
     <t>Largest community</t>
   </si>
   <si>
-    <t>Population</t>
+    <t>Baker City</t>
+  </si>
+  <si>
+    <t>Corvallis</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Astoria</t>
+  </si>
+  <si>
+    <t>St. Helens</t>
+  </si>
+  <si>
+    <t>Coos Bay</t>
+  </si>
+  <si>
+    <t>Prinville</t>
+  </si>
+  <si>
+    <t>Brookings</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>Roseburg</t>
+  </si>
+  <si>
+    <t>Condon</t>
+  </si>
+  <si>
+    <t>John Day</t>
+  </si>
+  <si>
+    <t>Burns</t>
+  </si>
+  <si>
+    <t>Medford</t>
+  </si>
+  <si>
+    <t>Madras</t>
+  </si>
+  <si>
+    <t>Grants Pass</t>
+  </si>
+  <si>
+    <t>Klamath Falls</t>
+  </si>
+  <si>
+    <t>Lakeview</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Boardman</t>
+  </si>
+  <si>
+    <t>Hermiston</t>
+  </si>
+  <si>
+    <t>La Grande</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>The Dalles</t>
+  </si>
+  <si>
+    <t>Fossil</t>
+  </si>
+  <si>
+    <t>McMinnville</t>
   </si>
   <si>
     <t>Notable Feature 1</t>
@@ -166,6 +289,303 @@
     <t>Notable Feature 3</t>
   </si>
   <si>
+    <t>Wallowa Whiteman National Forest</t>
+  </si>
+  <si>
+    <t>Hells Canyon National Recreation Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony Lakes Ski Area </t>
+  </si>
+  <si>
+    <t>Corvallis Watershed Wild Animal Refuge</t>
+  </si>
+  <si>
+    <t>Marys Peak</t>
+  </si>
+  <si>
+    <t>Alsea Falls Recreational Site</t>
+  </si>
+  <si>
+    <t>Mt Hood National Forest</t>
+  </si>
+  <si>
+    <t>Timberline Lodge</t>
+  </si>
+  <si>
+    <t>Trillium Lake</t>
+  </si>
+  <si>
+    <t>Lewis &amp; Clark National &amp; State Historical Parks</t>
+  </si>
+  <si>
+    <t>Haystack Rock</t>
+  </si>
+  <si>
+    <t>Fort Stevens State Park</t>
+  </si>
+  <si>
+    <t>Forest Grove District State Forest</t>
+  </si>
+  <si>
+    <t>Collins Beach</t>
+  </si>
+  <si>
+    <t>Multnomah Channel</t>
+  </si>
+  <si>
+    <t>Oregon Dunes National Recreation Area</t>
+  </si>
+  <si>
+    <t>Sunset Bay State Park</t>
+  </si>
+  <si>
+    <t>Shore Acres State Park</t>
+  </si>
+  <si>
+    <t>Ochoco National Forest</t>
+  </si>
+  <si>
+    <t>Prineville Reservoir Wildlife Area</t>
+  </si>
+  <si>
+    <t>Ochoco Wayside State Park</t>
+  </si>
+  <si>
+    <t>Rogue River-Siskiyou National Forest</t>
+  </si>
+  <si>
+    <t>Cape Blanco State Park</t>
+  </si>
+  <si>
+    <t>Floras Lake State Natural Area</t>
+  </si>
+  <si>
+    <t>Mount Bachelor Ski Area</t>
+  </si>
+  <si>
+    <t>Tumalo Falls</t>
+  </si>
+  <si>
+    <t>Lava River Cave</t>
+  </si>
+  <si>
+    <t>Wildlife Safari</t>
+  </si>
+  <si>
+    <t>Umpqua National Forest</t>
+  </si>
+  <si>
+    <t>Cottonwood Canyon Recreation Area</t>
+  </si>
+  <si>
+    <t>J S Burres State Park</t>
+  </si>
+  <si>
+    <t>Earl Snell Memorial Park</t>
+  </si>
+  <si>
+    <t>John Day Fossil Beds National Monument</t>
+  </si>
+  <si>
+    <t>Umatilla National Forest</t>
+  </si>
+  <si>
+    <t>Malheur National Forest</t>
+  </si>
+  <si>
+    <t>Steen Mountains</t>
+  </si>
+  <si>
+    <t>Malheur National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Alvord Hot Springs</t>
+  </si>
+  <si>
+    <t>Mount Hood National Forest</t>
+  </si>
+  <si>
+    <t>Mt Hood Meadows Ski Area</t>
+  </si>
+  <si>
+    <t>Eagle Creek</t>
+  </si>
+  <si>
+    <t>Bear Creek Greenway</t>
+  </si>
+  <si>
+    <t>Cascade-Siskiyou National Monument</t>
+  </si>
+  <si>
+    <t>Oregon Vortex</t>
+  </si>
+  <si>
+    <t>The Cove Palisades State Park</t>
+  </si>
+  <si>
+    <t>Black Butte</t>
+  </si>
+  <si>
+    <t>Lake Billy Chinook</t>
+  </si>
+  <si>
+    <t>Oregon Caves National Monument and Preserves</t>
+  </si>
+  <si>
+    <t>Indian Mary Park</t>
+  </si>
+  <si>
+    <t>Rogue River-Siskiyou National Park</t>
+  </si>
+  <si>
+    <t>Crater Lake National Park</t>
+  </si>
+  <si>
+    <t>Winema National Forest</t>
+  </si>
+  <si>
+    <t>Klamath Marsh National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Fremont National Forest</t>
+  </si>
+  <si>
+    <t>Hart Mountain National Antelope Refuge</t>
+  </si>
+  <si>
+    <t>Derrick Cave</t>
+  </si>
+  <si>
+    <t>Sea Lion Caves</t>
+  </si>
+  <si>
+    <t>Three Sisters</t>
+  </si>
+  <si>
+    <t>Oregon Coast Aquarium</t>
+  </si>
+  <si>
+    <t>Yaquina Bay State Recreation Site</t>
+  </si>
+  <si>
+    <t>South Beach State Park</t>
+  </si>
+  <si>
+    <t>Mount Washington</t>
+  </si>
+  <si>
+    <t>Middle Santiam Wilderness</t>
+  </si>
+  <si>
+    <t>Willamette National Forest</t>
+  </si>
+  <si>
+    <t>Lake Owyhee State Park</t>
+  </si>
+  <si>
+    <t>Succor Creek Natural Area</t>
+  </si>
+  <si>
+    <t>Ontario State Recreation Site</t>
+  </si>
+  <si>
+    <t>Silver Falls State Park</t>
+  </si>
+  <si>
+    <t>Enchanted Forest</t>
+  </si>
+  <si>
+    <t>Oregon State Capitol</t>
+  </si>
+  <si>
+    <t>Umatilla National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Willow Creek Dam</t>
+  </si>
+  <si>
+    <t>Multnomah Falls</t>
+  </si>
+  <si>
+    <t>Mark O Hatfield Wilderness</t>
+  </si>
+  <si>
+    <t>Basket Slough National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Valley of the Giants</t>
+  </si>
+  <si>
+    <t>Sarah Helmick State Recreation Site</t>
+  </si>
+  <si>
+    <t>Deschutes River State Recreation Area</t>
+  </si>
+  <si>
+    <t>Cottonwood Canyon State Park</t>
+  </si>
+  <si>
+    <t>John Day Dam</t>
+  </si>
+  <si>
+    <t>Tillamook State Forest</t>
+  </si>
+  <si>
+    <t>Nehalem Bay State Park</t>
+  </si>
+  <si>
+    <t>Cape Meares National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Bridge Creek Wildlife Area</t>
+  </si>
+  <si>
+    <t>Hat Rock State Park</t>
+  </si>
+  <si>
+    <t>Eagle Cap Mountain Peak</t>
+  </si>
+  <si>
+    <t>Hilgard Junction State Park</t>
+  </si>
+  <si>
+    <t>Wallowa Lake State Park</t>
+  </si>
+  <si>
+    <t>Zumwalt Prairie</t>
+  </si>
+  <si>
+    <t>Wallowa Whitman National Forest</t>
+  </si>
+  <si>
+    <t>Deschutes River Recreation Site</t>
+  </si>
+  <si>
+    <t>Memaloose State Park</t>
+  </si>
+  <si>
+    <t>LL Stub Stewart State Park</t>
+  </si>
+  <si>
+    <t>Tualatin River National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>Tualatin Hills Nature Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painted Hills </t>
+  </si>
+  <si>
+    <t>Mt Hebo</t>
+  </si>
+  <si>
+    <t>Pheasant Creek Falls</t>
+  </si>
+  <si>
+    <t>Bald Creek State Scenic Viewpoint</t>
+  </si>
+  <si>
     <t>BP</t>
   </si>
   <si>
@@ -196,25 +616,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>Percent Rural</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Net Migration</t>
-  </si>
-  <si>
-    <t>Land Area</t>
-  </si>
-  <si>
-    <t>Publicly-Owned Lands</t>
+    <t>x</t>
   </si>
   <si>
     <t>Median Income</t>
@@ -361,394 +763,64 @@
     <t>Industry 3</t>
   </si>
   <si>
-    <t>Wallowa Whiteman National Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthony Lakes Ski Area </t>
-  </si>
-  <si>
-    <t>Corvallis Watershed Wild Animal Refuge</t>
-  </si>
-  <si>
-    <t>Marys Peak</t>
-  </si>
-  <si>
-    <t>Alsea Falls Recreational Site</t>
-  </si>
-  <si>
-    <t>Mt Hood National Forest</t>
-  </si>
-  <si>
-    <t>Timberline Lodge</t>
-  </si>
-  <si>
-    <t>Trillium Lake</t>
-  </si>
-  <si>
-    <t>Lewis &amp; Clark National &amp; State Historical Parks</t>
-  </si>
-  <si>
-    <t>Haystack Rock</t>
-  </si>
-  <si>
-    <t>Fort Stevens State Park</t>
-  </si>
-  <si>
-    <t>Forest Grove District State Forest</t>
-  </si>
-  <si>
-    <t>Collins Beach</t>
-  </si>
-  <si>
-    <t>Multnomah Channel</t>
-  </si>
-  <si>
-    <t>Oregon Dunes National Recreation Area</t>
-  </si>
-  <si>
-    <t>Sunset Bay State Park</t>
-  </si>
-  <si>
-    <t>Shore Acres State Park</t>
-  </si>
-  <si>
-    <t>Ochoco National Forest</t>
-  </si>
-  <si>
-    <t>Prineville Reservoir Wildlife Area</t>
-  </si>
-  <si>
-    <t>Ochoco Wayside State Park</t>
-  </si>
-  <si>
-    <t>Rogue River-Siskiyou National Forest</t>
-  </si>
-  <si>
-    <t>Cape Blanco State Park</t>
-  </si>
-  <si>
-    <t>Floras Lake State Natural Area</t>
-  </si>
-  <si>
-    <t>Mount Bachelor Ski Area</t>
-  </si>
-  <si>
-    <t>Tumalo Falls</t>
-  </si>
-  <si>
-    <t>Lava River Cave</t>
-  </si>
-  <si>
-    <t>Wildlife Safari</t>
-  </si>
-  <si>
-    <t>Umpqua National Forest</t>
-  </si>
-  <si>
-    <t>Cottonwood Canyon Recreation Area</t>
-  </si>
-  <si>
-    <t>J S Burres State Park</t>
-  </si>
-  <si>
-    <t>Earl Snell Memorial Park</t>
-  </si>
-  <si>
-    <t>John Day Fossil Beds National Monument</t>
-  </si>
-  <si>
-    <t>Umatilla National Forest</t>
-  </si>
-  <si>
-    <t>Malheur National Forest</t>
-  </si>
-  <si>
-    <t>Steen Mountains</t>
-  </si>
-  <si>
-    <t>Malheur National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t>Alvord Hot Springs</t>
-  </si>
-  <si>
-    <t>Mount Hood National Forest</t>
-  </si>
-  <si>
-    <t>Mt Hood Meadows Ski Area</t>
-  </si>
-  <si>
-    <t>Eagle Creek</t>
-  </si>
-  <si>
-    <t>Bear Creek Greenway</t>
-  </si>
-  <si>
-    <t>Cascade-Siskiyou National Monument</t>
-  </si>
-  <si>
-    <t>Oregon Vortex</t>
-  </si>
-  <si>
-    <t>The Cove Palisades State Park</t>
-  </si>
-  <si>
-    <t>Black Butte</t>
-  </si>
-  <si>
-    <t>Lake Billy Chinook</t>
-  </si>
-  <si>
-    <t>Oregon Caves National Monument and Preserves</t>
-  </si>
-  <si>
-    <t>Indian Mary Park</t>
-  </si>
-  <si>
-    <t>Rogue River-Siskiyou National Park</t>
-  </si>
-  <si>
-    <t>Crater Lake National Park</t>
-  </si>
-  <si>
-    <t>Winema National Forest</t>
-  </si>
-  <si>
-    <t>Klamath Marsh National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t>Fremont National Forest</t>
-  </si>
-  <si>
-    <t>Hart Mountain National Antelope Refuge</t>
-  </si>
-  <si>
-    <t>Derrick Cave</t>
-  </si>
-  <si>
-    <t>Sea Lion Caves</t>
-  </si>
-  <si>
-    <t>Three Sisters</t>
-  </si>
-  <si>
-    <t>Oregon Coast Aquarium</t>
-  </si>
-  <si>
-    <t>Yaquina Bay State Recreation Site</t>
-  </si>
-  <si>
-    <t>South Beach State Park</t>
-  </si>
-  <si>
-    <t>Mount Washington</t>
-  </si>
-  <si>
-    <t>Middle Santiam Wilderness</t>
-  </si>
-  <si>
-    <t>Willamette National Forest</t>
-  </si>
-  <si>
-    <t>Lake Owyhee State Park</t>
-  </si>
-  <si>
-    <t>Succor Creek Natural Area</t>
-  </si>
-  <si>
-    <t>Ontario State Recreation Site</t>
-  </si>
-  <si>
-    <t>Silver Falls State Park</t>
-  </si>
-  <si>
-    <t>Enchanted Forest</t>
-  </si>
-  <si>
-    <t>Oregon State Capitol</t>
-  </si>
-  <si>
-    <t>Umatilla National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t>Willow Creek Dam</t>
-  </si>
-  <si>
-    <t>Multnomah Falls</t>
-  </si>
-  <si>
-    <t>Mark O Hatfield Wilderness</t>
-  </si>
-  <si>
-    <t>Basket Slough National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t>Valley of the Giants</t>
-  </si>
-  <si>
-    <t>Sarah Helmick State Recreation Site</t>
-  </si>
-  <si>
-    <t>Deschutes River State Recreation Area</t>
-  </si>
-  <si>
-    <t>Cottonwood Canyon State Park</t>
-  </si>
-  <si>
-    <t>John Day Dam</t>
-  </si>
-  <si>
-    <t>Tillamook State Forest</t>
-  </si>
-  <si>
-    <t>Nehalem Bay State Park</t>
-  </si>
-  <si>
-    <t>Cape Meares National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t>Bridge Creek Wildlife Area</t>
-  </si>
-  <si>
-    <t>Hat Rock State Park</t>
-  </si>
-  <si>
-    <t>Eagle Cap Mountain Peak</t>
-  </si>
-  <si>
-    <t>Hilgard Junction State Park</t>
-  </si>
-  <si>
-    <t>Wallowa Lake State Park</t>
-  </si>
-  <si>
-    <t>Zumwalt Prairie</t>
-  </si>
-  <si>
-    <t>Wallowa Whitman National Forest</t>
-  </si>
-  <si>
-    <t>Deschutes River Recreation Site</t>
-  </si>
-  <si>
-    <t>Memaloose State Park</t>
-  </si>
-  <si>
-    <t>LL Stub Stewart State Park</t>
-  </si>
-  <si>
-    <t>Tualatin River National Wildlife Refuge</t>
-  </si>
-  <si>
-    <t>Tualatin Hills Nature Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painted Hills </t>
-  </si>
-  <si>
-    <t>Mt Hebo</t>
-  </si>
-  <si>
-    <t>Bald Creek State Scenic Viewpoint</t>
-  </si>
-  <si>
-    <t>Pheasant Creek Falls</t>
-  </si>
-  <si>
-    <t>Baker City</t>
-  </si>
-  <si>
-    <t>Corvallis</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>Astoria</t>
-  </si>
-  <si>
-    <t>St. Helens</t>
-  </si>
-  <si>
-    <t>Coos Bay</t>
-  </si>
-  <si>
-    <t>Brookings</t>
-  </si>
-  <si>
-    <t>Bend</t>
-  </si>
-  <si>
-    <t>Roseburg</t>
-  </si>
-  <si>
-    <t>Condon</t>
-  </si>
-  <si>
-    <t>John Day</t>
-  </si>
-  <si>
-    <t>Burns</t>
-  </si>
-  <si>
-    <t>Medford</t>
-  </si>
-  <si>
-    <t>Madras</t>
-  </si>
-  <si>
-    <t>Grants Pass</t>
-  </si>
-  <si>
-    <t>Klamath Falls</t>
-  </si>
-  <si>
-    <t>Lakeview</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>Newport</t>
-  </si>
-  <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>Salem</t>
-  </si>
-  <si>
-    <t>Boardman</t>
-  </si>
-  <si>
-    <t>Hermiston</t>
-  </si>
-  <si>
-    <t>La Grande</t>
-  </si>
-  <si>
-    <t>Enterprise</t>
-  </si>
-  <si>
-    <t>The Dalles</t>
-  </si>
-  <si>
-    <t>Fossil</t>
-  </si>
-  <si>
-    <t>McMinnville</t>
+    <t>Educational Services</t>
+  </si>
+  <si>
+    <t>Food Services and Drinking Places</t>
+  </si>
+  <si>
+    <t>Ambulatory Health Care Services</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>Professional, Scientific, and Technical Services</t>
   </si>
   <si>
     <t>Accommodation</t>
   </si>
   <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>Hells Canyon National Recreation Area</t>
+    <t>Social Assistance</t>
+  </si>
+  <si>
+    <t>Administrative and Support Services</t>
+  </si>
+  <si>
+    <t>Wood Product Manufacturing</t>
+  </si>
+  <si>
+    <t>Waste Management and Remediation Services</t>
+  </si>
+  <si>
+    <t>Executive, Legislative, and Other General Government Support</t>
+  </si>
+  <si>
+    <t>Truck Transportation</t>
+  </si>
+  <si>
+    <t>Forestry and Logging</t>
+  </si>
+  <si>
+    <t>Crop Production</t>
+  </si>
+  <si>
+    <t>Primary Metal Manufacturing</t>
+  </si>
+  <si>
+    <t>Justice, Public Order, and Safety Activities</t>
+  </si>
+  <si>
+    <t>Food Manufacturing</t>
+  </si>
+  <si>
+    <t>Animal Production and Aquaculture</t>
+  </si>
+  <si>
+    <t>Nursing and Residential Care Facilities</t>
+  </si>
+  <si>
+    <t>Computer and Electronic Product Manufacturing</t>
   </si>
   <si>
     <t>At Birth Overall</t>
@@ -769,64 +841,10 @@
     <t>Above ALICE HH</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Educational Services</t>
-  </si>
-  <si>
-    <t>Food Services and Drinking Places</t>
-  </si>
-  <si>
-    <t>Ambulatory Health Care Services</t>
-  </si>
-  <si>
-    <t>Professional, Scientific, and Technical Services</t>
-  </si>
-  <si>
-    <t>Social Assistance</t>
-  </si>
-  <si>
-    <t>Administrative and Support Services</t>
-  </si>
-  <si>
-    <t>Wood Product Manufacturing</t>
-  </si>
-  <si>
-    <t>Waste Management and Remediation Services</t>
-  </si>
-  <si>
-    <t>Executive, Legislative, and Other General Government Support</t>
-  </si>
-  <si>
-    <t>Truck Transportation</t>
-  </si>
-  <si>
-    <t>Forestry and Logging</t>
-  </si>
-  <si>
-    <t>Crop Production</t>
-  </si>
-  <si>
-    <t>Primary Metal Manufacturing</t>
-  </si>
-  <si>
-    <t>Justice, Public Order, and Safety Activities</t>
-  </si>
-  <si>
-    <t>Food Manufacturing</t>
-  </si>
-  <si>
-    <t>Animal Production and Aquaculture</t>
-  </si>
-  <si>
-    <t>Nursing and Residential Care Facilities</t>
-  </si>
-  <si>
-    <t>Computer and Electronic Product Manufacturing</t>
-  </si>
-  <si>
-    <t>Prineville</t>
+    <t>ALICE Threshold - HH under 65</t>
+  </si>
+  <si>
+    <t>ALICE Threshold - HH 65 years and over</t>
   </si>
 </sst>
 </file>
@@ -897,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,6 +928,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,19 +1250,19 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>15984</v>
@@ -1250,7 +1270,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>89780</v>
@@ -1258,7 +1278,7 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>405788</v>
@@ -1266,7 +1286,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>38562</v>
@@ -1274,7 +1294,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>50851</v>
@@ -1282,7 +1302,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>63308</v>
@@ -1290,7 +1310,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>22337</v>
@@ -1298,7 +1318,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>22507</v>
@@ -1306,7 +1326,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>180640</v>
@@ -1314,7 +1334,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>108323</v>
@@ -1322,7 +1342,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1907</v>
@@ -1330,7 +1350,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>7183</v>
@@ -1338,7 +1358,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>7228</v>
@@ -1346,7 +1366,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>23131</v>
@@ -1354,7 +1374,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>214267</v>
@@ -1362,7 +1382,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>23143</v>
@@ -1370,7 +1390,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>85481</v>
@@ -1378,7 +1398,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>66310</v>
@@ -1386,7 +1406,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>7843</v>
@@ -1394,7 +1414,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>368882</v>
@@ -1402,7 +1422,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>47881</v>
@@ -1410,7 +1430,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>122870</v>
@@ -1418,7 +1438,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>30431</v>
@@ -1426,7 +1446,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>335553</v>
@@ -1434,7 +1454,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>11215</v>
@@ -1442,7 +1462,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>798647</v>
@@ -1450,7 +1470,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>81427</v>
@@ -1458,7 +1478,7 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1605</v>
@@ -1466,7 +1486,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>26076</v>
@@ -1474,7 +1494,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>76898</v>
@@ -1482,7 +1502,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>26028</v>
@@ -1490,7 +1510,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>6924</v>
@@ -1498,7 +1518,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>25866</v>
@@ -1506,7 +1526,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>581821</v>
@@ -1514,7 +1534,7 @@
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>1426</v>
@@ -1522,7 +1542,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>103820</v>
@@ -1530,7 +1550,7 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>1269722</v>
@@ -1538,7 +1558,7 @@
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>2812221</v>
@@ -1546,7 +1566,7 @@
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>4081943</v>
@@ -1561,44 +1581,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="112">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="102">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>0.90809559559559561</v>
@@ -1627,7 +1647,7 @@
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>0.80582535085765206</v>
@@ -1656,7 +1676,7 @@
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
         <v>0.82310467534771847</v>
@@ -1685,7 +1705,7 @@
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>0.85700949120896219</v>
@@ -1714,7 +1734,7 @@
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>0.88802580086920613</v>
@@ -1743,7 +1763,7 @@
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>0.85357300815062864</v>
@@ -1772,7 +1792,7 @@
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
         <v>0.88279536195549979</v>
@@ -1801,7 +1821,7 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>0.86493091038343628</v>
@@ -1830,7 +1850,7 @@
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
         <v>0.87519929140832597</v>
@@ -1859,7 +1879,7 @@
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6">
         <v>0.88069938978794904</v>
@@ -1888,7 +1908,7 @@
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6">
         <v>0.87939171473518618</v>
@@ -1917,7 +1937,7 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>0.91577335375191427</v>
@@ -1946,7 +1966,7 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6">
         <v>0.86566131710016603</v>
@@ -1975,7 +1995,7 @@
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6">
         <v>0.63827763607280275</v>
@@ -2004,7 +2024,7 @@
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6">
         <v>0.81249562461788327</v>
@@ -2033,7 +2053,7 @@
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6">
         <v>0.60208270319319013</v>
@@ -2062,7 +2082,7 @@
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6">
         <v>0.87128133737321745</v>
@@ -2091,7 +2111,7 @@
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6">
         <v>0.78365254109485749</v>
@@ -2120,7 +2140,7 @@
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6">
         <v>0.84712482468443195</v>
@@ -2149,7 +2169,7 @@
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6">
         <v>0.82122738436681653</v>
@@ -2178,7 +2198,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6">
         <v>0.82627764666569203</v>
@@ -2207,7 +2227,7 @@
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6">
         <v>0.85362578334825423</v>
@@ -2236,7 +2256,7 @@
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6">
         <v>0.61447208438763101</v>
@@ -2265,7 +2285,7 @@
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6">
         <v>0.65804209767160482</v>
@@ -2294,7 +2314,7 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6">
         <v>0.59866250557289347</v>
@@ -2323,7 +2343,7 @@
     </row>
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6">
         <v>0.69968960003606095</v>
@@ -2352,7 +2372,7 @@
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6">
         <v>0.78445724391172467</v>
@@ -2381,7 +2401,7 @@
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6">
         <v>0.9183800623052959</v>
@@ -2410,7 +2430,7 @@
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="6">
         <v>0.8446464181622948</v>
@@ -2439,7 +2459,7 @@
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="6">
         <v>0.6642435433951468</v>
@@ -2468,7 +2488,7 @@
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6">
         <v>0.88984939296142618</v>
@@ -2497,7 +2517,7 @@
     </row>
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6">
         <v>0.93139803581744651</v>
@@ -2526,7 +2546,7 @@
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6">
         <v>0.75032861671692574</v>
@@ -2555,7 +2575,7 @@
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6">
         <v>0.66342913026515027</v>
@@ -2584,7 +2604,7 @@
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6">
         <v>0.85203366058906027</v>
@@ -2613,7 +2633,7 @@
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="6">
         <v>0.77329031015218652</v>
@@ -2641,90 +2661,90 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0.83917424444090916</v>
-      </c>
-      <c r="C38" s="6">
-        <v>5.4303225430448552E-3</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1.4670927966909292E-2</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1.2935902504642749E-2</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1.4861520868347559E-3</v>
-      </c>
-      <c r="G38" s="6">
-        <v>1.0435355140731594E-3</v>
-      </c>
-      <c r="H38" s="6">
-        <v>2.771630325378311E-2</v>
-      </c>
-      <c r="I38" s="6">
-        <v>9.7542611689802966E-2</v>
+      <c r="A38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.7603136545512762</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1.8215834958988892E-2</v>
+      </c>
+      <c r="D38" s="11">
+        <v>9.0094349676122371E-3</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4.2260511721991217E-2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3.7484599858449764E-3</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1.5703305999128355E-3</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3.6522313025929072E-2</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0.12835946018844457</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>0.72470797992049696</v>
+        <v>0.83917424444090916</v>
       </c>
       <c r="C39" s="6">
-        <v>2.398851299382232E-2</v>
+        <v>5.4303225430448552E-3</v>
       </c>
       <c r="D39" s="6">
-        <v>6.4532623858508985E-3</v>
+        <v>1.4670927966909292E-2</v>
       </c>
       <c r="E39" s="6">
-        <v>5.5500616772294925E-2</v>
+        <v>1.2935902504642749E-2</v>
       </c>
       <c r="F39" s="6">
-        <v>4.7698953958454898E-3</v>
+        <v>1.4861520868347559E-3</v>
       </c>
       <c r="G39" s="6">
-        <v>1.8081793713936422E-3</v>
+        <v>1.0435355140731594E-3</v>
       </c>
       <c r="H39" s="6">
-        <v>4.0498239647595261E-2</v>
+        <v>2.771630325378311E-2</v>
       </c>
       <c r="I39" s="6">
-        <v>0.14227331351270045</v>
+        <v>9.7542611689802966E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>0.7603136545512762</v>
+        <v>0.72470797992049696</v>
       </c>
       <c r="C40" s="6">
-        <v>1.8215834958988892E-2</v>
+        <v>2.398851299382232E-2</v>
       </c>
       <c r="D40" s="6">
-        <v>9.0094349676122371E-3</v>
+        <v>6.4532623858508985E-3</v>
       </c>
       <c r="E40" s="6">
-        <v>4.2260511721991217E-2</v>
+        <v>5.5500616772294925E-2</v>
       </c>
       <c r="F40" s="6">
-        <v>3.7484599858449764E-3</v>
+        <v>4.7698953958454898E-3</v>
       </c>
       <c r="G40" s="6">
-        <v>1.5703305999128355E-3</v>
+        <v>1.8081793713936422E-3</v>
       </c>
       <c r="H40" s="6">
-        <v>3.6522313025929072E-2</v>
+        <v>4.0498239647595261E-2</v>
       </c>
       <c r="I40" s="6">
-        <v>0.12835946018844457</v>
+        <v>0.14227331351270045</v>
       </c>
     </row>
   </sheetData>
@@ -2741,124 +2761,124 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" ht="28">
+    <row r="1" spans="1:37" s="5" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2.7277277277277277E-2</v>
@@ -2971,7 +2991,7 @@
     </row>
     <row r="3" spans="1:37" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2.1018044107819114E-2</v>
@@ -3084,7 +3104,7 @@
     </row>
     <row r="4" spans="1:37" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2.7627726793300937E-2</v>
@@ -3197,7 +3217,7 @@
     </row>
     <row r="5" spans="1:37" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2.987396919246927E-2</v>
@@ -3310,7 +3330,7 @@
     </row>
     <row r="6" spans="1:37" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2.7059448191775973E-2</v>
@@ -3423,7 +3443,7 @@
     </row>
     <row r="7" spans="1:37" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2.3377772161496179E-2</v>
@@ -3536,7 +3556,7 @@
     </row>
     <row r="8" spans="1:37" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2.4488516810672874E-2</v>
@@ -3649,7 +3669,7 @@
     </row>
     <row r="9" spans="1:37" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2.0127071577731373E-2</v>
@@ -3762,7 +3782,7 @@
     </row>
     <row r="10" spans="1:37" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2.6306465899025685E-2</v>
@@ -3875,7 +3895,7 @@
     </row>
     <row r="11" spans="1:37" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2.6540993140884206E-2</v>
@@ -3988,7 +4008,7 @@
     </row>
     <row r="12" spans="1:37" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1.9402202412165705E-2</v>
@@ -4101,7 +4121,7 @@
     </row>
     <row r="13" spans="1:37" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2.7008213838229152E-2</v>
@@ -4214,7 +4234,7 @@
     </row>
     <row r="14" spans="1:37" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2.7531820697288323E-2</v>
@@ -4327,7 +4347,7 @@
     </row>
     <row r="15" spans="1:37" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3.2207859582378623E-2</v>
@@ -4440,7 +4460,7 @@
     </row>
     <row r="16" spans="1:37" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2.8553160309333681E-2</v>
@@ -4553,7 +4573,7 @@
     </row>
     <row r="17" spans="1:37" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3.3055351510175864E-2</v>
@@ -4666,7 +4686,7 @@
     </row>
     <row r="18" spans="1:37" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>2.5608029854587568E-2</v>
@@ -4779,7 +4799,7 @@
     </row>
     <row r="19" spans="1:37" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>3.151862464183381E-2</v>
@@ -4892,7 +4912,7 @@
     </row>
     <row r="20" spans="1:37" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>3.0345531046793318E-2</v>
@@ -5005,7 +5025,7 @@
     </row>
     <row r="21" spans="1:37" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2.5891748580846991E-2</v>
@@ -5118,7 +5138,7 @@
     </row>
     <row r="22" spans="1:37" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2.4310269209080845E-2</v>
@@ -5231,7 +5251,7 @@
     </row>
     <row r="23" spans="1:37" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2.9999186131683894E-2</v>
@@ -5344,7 +5364,7 @@
     </row>
     <row r="24" spans="1:37" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>3.4142814892708095E-2</v>
@@ -5457,7 +5477,7 @@
     </row>
     <row r="25" spans="1:37" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>3.4918477855957183E-2</v>
@@ -5570,7 +5590,7 @@
     </row>
     <row r="26" spans="1:37" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>3.8965670976370929E-2</v>
@@ -5683,7 +5703,7 @@
     </row>
     <row r="27" spans="1:37" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2.9347133339260024E-2</v>
@@ -5796,7 +5816,7 @@
     </row>
     <row r="28" spans="1:37" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>2.7656674076166381E-2</v>
@@ -5909,7 +5929,7 @@
     </row>
     <row r="29" spans="1:37" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>2.3052959501557634E-2</v>
@@ -6022,7 +6042,7 @@
     </row>
     <row r="30" spans="1:37" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>2.377665286086823E-2</v>
@@ -6135,7 +6155,7 @@
     </row>
     <row r="31" spans="1:37" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>3.4591276756222526E-2</v>
@@ -6248,7 +6268,7 @@
     </row>
     <row r="32" spans="1:37" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>3.1235592438911941E-2</v>
@@ -6361,7 +6381,7 @@
     </row>
     <row r="33" spans="1:37" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>2.3396880415944541E-2</v>
@@ -6474,7 +6494,7 @@
     </row>
     <row r="34" spans="1:37" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>3.3866852238459755E-2</v>
@@ -6587,7 +6607,7 @@
     </row>
     <row r="35" spans="1:37" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>3.2212656469945221E-2</v>
@@ -6700,7 +6720,7 @@
     </row>
     <row r="36" spans="1:37" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>2.0336605890603085E-2</v>
@@ -6813,7 +6833,7 @@
     </row>
     <row r="37" spans="1:37" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>2.8925062608360624E-2</v>
@@ -6926,7 +6946,7 @@
     </row>
     <row r="38" spans="1:37" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>2.6427044660169707E-2</v>
@@ -7039,7 +7059,7 @@
     </row>
     <row r="39" spans="1:37" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>3.0372790758621034E-2</v>
@@ -7152,7 +7172,7 @@
     </row>
     <row r="40" spans="1:37" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>2.9145433926931367E-2</v>
@@ -7276,548 +7296,548 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
         <v>244</v>
-      </c>
-      <c r="D7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
         <v>245</v>
       </c>
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" t="s">
         <v>245</v>
       </c>
-      <c r="C9" t="s">
-        <v>250</v>
-      </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" t="s">
         <v>245</v>
-      </c>
-      <c r="D19" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" t="s">
         <v>245</v>
-      </c>
-      <c r="D32" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7833,9 +7853,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -7843,18 +7863,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7">
         <v>79.7</v>
@@ -7868,7 +7888,7 @@
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>78.8</v>
@@ -7882,7 +7902,7 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>83.4</v>
@@ -7896,7 +7916,7 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>80.900000000000006</v>
@@ -7910,7 +7930,7 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>77.900000000000006</v>
@@ -7924,7 +7944,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>79.2</v>
@@ -7938,7 +7958,7 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>76.5</v>
@@ -7952,7 +7972,7 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>78.5</v>
@@ -7966,7 +7986,7 @@
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>76.099999999999994</v>
@@ -7980,7 +8000,7 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>80.599999999999994</v>
@@ -7994,7 +8014,7 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>77.400000000000006</v>
@@ -8008,7 +8028,7 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>81.400000000000006</v>
@@ -8019,7 +8039,7 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>81.7</v>
@@ -8033,7 +8053,7 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>77.8</v>
@@ -8047,7 +8067,7 @@
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>81.5</v>
@@ -8061,7 +8081,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>78.900000000000006</v>
@@ -8075,7 +8095,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>77.400000000000006</v>
@@ -8089,7 +8109,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>76.900000000000006</v>
@@ -8103,7 +8123,7 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>76.900000000000006</v>
@@ -8117,7 +8137,7 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>79</v>
@@ -8131,7 +8151,7 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>79.400000000000006</v>
@@ -8145,7 +8165,7 @@
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>77.7</v>
@@ -8159,7 +8179,7 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>77.900000000000006</v>
@@ -8173,7 +8193,7 @@
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>78.2</v>
@@ -8187,7 +8207,7 @@
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>79.400000000000006</v>
@@ -8201,7 +8221,7 @@
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>80.5</v>
@@ -8215,7 +8235,7 @@
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>79.2</v>
@@ -8229,7 +8249,7 @@
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>79.8</v>
@@ -8243,7 +8263,7 @@
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>79.599999999999994</v>
@@ -8251,7 +8271,7 @@
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>78.7</v>
@@ -8265,7 +8285,7 @@
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>78.900000000000006</v>
@@ -8279,7 +8299,7 @@
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>79.8</v>
@@ -8293,7 +8313,7 @@
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>80.099999999999994</v>
@@ -8307,7 +8327,7 @@
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>78</v>
@@ -8321,7 +8341,7 @@
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>82.3</v>
@@ -8335,7 +8355,7 @@
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>82.4</v>
@@ -8343,7 +8363,7 @@
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>79.7</v>
@@ -8371,556 +8391,778 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="63.75">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+      <c r="B1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7">
-        <v>12.911466358132529</v>
+        <v>12.120045325031079</v>
       </c>
       <c r="C2" s="7">
-        <v>27.761962857530158</v>
+        <v>31.63896192477365</v>
       </c>
       <c r="D2" s="7">
-        <v>59.326570784337306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>56.240992750195275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>14.363143631436316</v>
+        <v>14.667244117222463</v>
       </c>
       <c r="C3">
-        <v>31.807160176864929</v>
+        <v>30.835859679514943</v>
       </c>
       <c r="D3">
-        <v>53.829696191698758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>54.496896203262594</v>
+      </c>
+      <c r="E3">
+        <v>45000</v>
+      </c>
+      <c r="F3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>19.946154068841736</v>
+        <v>16.841216216216214</v>
       </c>
       <c r="C4">
-        <v>22.059462119676922</v>
+        <v>21.852477477477478</v>
       </c>
       <c r="D4">
-        <v>57.994383811481342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>61.306306306306304</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8.0684104627766597</v>
+        <v>7.1805176725522681</v>
       </c>
       <c r="C5">
-        <v>28.443564613487375</v>
+        <v>36.005266174905039</v>
       </c>
       <c r="D5">
-        <v>63.488024923735964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>56.814216152542699</v>
+      </c>
+      <c r="E5">
+        <v>75000</v>
+      </c>
+      <c r="F5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>12.553539934492317</v>
+        <v>10.301697045883092</v>
       </c>
       <c r="C6">
-        <v>35.468631897203323</v>
+        <v>35.644248900062856</v>
       </c>
       <c r="D6">
-        <v>51.977828168304363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>54.054054054054056</v>
+      </c>
+      <c r="E6">
+        <v>50000</v>
+      </c>
+      <c r="F6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>13.072171479858508</v>
+        <v>11.541252072968492</v>
       </c>
       <c r="C7">
-        <v>35.299086637453144</v>
+        <v>35.002072968490879</v>
       </c>
       <c r="D7">
-        <v>51.628741882688345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>53.456674958540631</v>
+      </c>
+      <c r="E7">
+        <v>60000</v>
+      </c>
+      <c r="F7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>17.460687245195107</v>
+        <v>16.944444444444446</v>
       </c>
       <c r="C8">
-        <v>34.622403416812269</v>
+        <v>32.135885885885884</v>
       </c>
       <c r="D8">
-        <v>47.916909337992628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>50.919669669669666</v>
+      </c>
+      <c r="E8">
+        <v>45000</v>
+      </c>
+      <c r="F8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>17.487711632987438</v>
+        <v>14.39126244779955</v>
       </c>
       <c r="C9">
-        <v>29.186237028945932</v>
+        <v>42.167255594817433</v>
       </c>
       <c r="D9">
-        <v>53.326051338066627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>43.441481957383019</v>
+      </c>
+      <c r="E9">
+        <v>60000</v>
+      </c>
+      <c r="F9">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>14.255482878030012</v>
+        <v>14.2911877394636</v>
       </c>
       <c r="C10">
-        <v>37.196998845709892</v>
+        <v>33.32375478927203</v>
       </c>
       <c r="D10">
-        <v>48.547518276260099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>52.385057471264361</v>
+      </c>
+      <c r="E10">
+        <v>45000</v>
+      </c>
+      <c r="F10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>11.136370014874688</v>
+        <v>10.003752345215759</v>
       </c>
       <c r="C11">
-        <v>26.091044315343382</v>
+        <v>24.581613508442775</v>
       </c>
       <c r="D11">
-        <v>62.772585669781932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+        <v>65.41463414634147</v>
+      </c>
+      <c r="E11">
+        <v>50000</v>
+      </c>
+      <c r="F11">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>13.912090921539095</v>
+        <v>12.739062808070628</v>
       </c>
       <c r="C12">
-        <v>33.148477794513667</v>
+        <v>33.136898372291718</v>
       </c>
       <c r="D12">
-        <v>52.939431283947236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
+        <v>54.124038819637654</v>
+      </c>
+      <c r="E12">
+        <v>45000</v>
+      </c>
+      <c r="F12">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>12.563451776649744</v>
+        <v>13.089622641509436</v>
       </c>
       <c r="C13">
-        <v>34.771573604060912</v>
+        <v>30.778301886792452</v>
       </c>
       <c r="D13">
-        <v>52.664974619289339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
+        <v>56.132075471698116</v>
+      </c>
+      <c r="E13">
+        <v>40000</v>
+      </c>
+      <c r="F13">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>14.915899714376387</v>
+        <v>15.846994535519126</v>
       </c>
       <c r="C14">
-        <v>33.576642335766422</v>
+        <v>28.749241044323011</v>
       </c>
       <c r="D14">
-        <v>51.507457949857184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
+        <v>55.403764420157863</v>
+      </c>
+      <c r="E14">
+        <v>40000</v>
+      </c>
+      <c r="F14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>13.566525008172606</v>
+        <v>14.032309154260375</v>
       </c>
       <c r="C15">
-        <v>37.986270022883296</v>
+        <v>32.689261957554635</v>
       </c>
       <c r="D15">
-        <v>48.447204968944099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
+        <v>53.278428888184983</v>
+      </c>
+      <c r="E15">
+        <v>40000</v>
+      </c>
+      <c r="F15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>9.3388530378667962</v>
+        <v>7.413046024124605</v>
       </c>
       <c r="C16">
-        <v>37.197126506757577</v>
+        <v>38.037240894718352</v>
       </c>
       <c r="D16">
-        <v>53.464020455375625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+        <v>54.549713081157044</v>
+      </c>
+      <c r="E16">
+        <v>60000</v>
+      </c>
+      <c r="F16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>14.606029165946163</v>
+        <v>13.409513626694288</v>
       </c>
       <c r="C17">
-        <v>30.467462101562049</v>
+        <v>24.450087429137849</v>
       </c>
       <c r="D17">
-        <v>54.926508732491783</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+        <v>62.140398944167863</v>
+      </c>
+      <c r="E17">
+        <v>45000</v>
+      </c>
+      <c r="F17">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>14.530816946020852</v>
+        <v>15.040547389761786</v>
       </c>
       <c r="C18">
-        <v>33.562095816286131</v>
+        <v>37.607704004054739</v>
       </c>
       <c r="D18">
-        <v>51.90708723769302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
+        <v>47.351748606183477</v>
+      </c>
+      <c r="E18">
+        <v>60000</v>
+      </c>
+      <c r="F18">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>18.897260080702054</v>
+        <v>15.76675031706198</v>
       </c>
       <c r="C19">
-        <v>37.997686164959511</v>
+        <v>29.593351142772335</v>
       </c>
       <c r="D19">
-        <v>43.105053754338442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
+        <v>54.639898540165674</v>
+      </c>
+      <c r="E19">
+        <v>50000</v>
+      </c>
+      <c r="F19">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>15.417883834743352</v>
+        <v>18.673035301141876</v>
       </c>
       <c r="C20">
-        <v>31.71592245532835</v>
+        <v>29.401447869243974</v>
       </c>
       <c r="D20">
-        <v>52.866193709928297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
+        <v>51.925516829614146</v>
+      </c>
+      <c r="E20">
+        <v>45000</v>
+      </c>
+      <c r="F20">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>17.688471692578471</v>
+        <v>19.089868345735546</v>
       </c>
       <c r="C21">
-        <v>36.638310354942796</v>
+        <v>33.514596451058956</v>
       </c>
       <c r="D21">
-        <v>45.673217952478737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
+        <v>47.395535203205498</v>
+      </c>
+      <c r="E21">
+        <v>40000</v>
+      </c>
+      <c r="F21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>18.213821490467939</v>
+        <v>17.038930749910296</v>
       </c>
       <c r="C22">
-        <v>26.404083622183709</v>
+        <v>28.226075144804962</v>
       </c>
       <c r="D22">
-        <v>55.382094887348352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
+        <v>54.734994105284741</v>
+      </c>
+      <c r="E22">
+        <v>50000</v>
+      </c>
+      <c r="F22">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>16.267005970441421</v>
+        <v>15.381335859782094</v>
       </c>
       <c r="C23">
-        <v>33.287657825193307</v>
+        <v>33.557555660824256</v>
       </c>
       <c r="D23">
-        <v>50.445336204365276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
+        <v>51.06110847939366</v>
+      </c>
+      <c r="E23">
+        <v>45000</v>
+      </c>
+      <c r="F23">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>11.130882195304963</v>
+        <v>11.61687025420931</v>
       </c>
       <c r="C24">
-        <v>33.810697823989713</v>
+        <v>29.40326840541433</v>
       </c>
       <c r="D24">
-        <v>55.058419980705331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
+        <v>58.97986134037636</v>
+      </c>
+      <c r="E24">
+        <v>50000</v>
+      </c>
+      <c r="F24">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>24.373421410530405</v>
+        <v>21.000197277569541</v>
       </c>
       <c r="C25">
-        <v>31.455216631047211</v>
+        <v>33.034129019530475</v>
       </c>
       <c r="D25">
-        <v>44.171361958422381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
+        <v>45.965673702899977</v>
+      </c>
+      <c r="E25">
+        <v>50000</v>
+      </c>
+      <c r="F25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>10.585082243742882</v>
+        <v>12.996293228238404</v>
       </c>
       <c r="C26">
-        <v>30.041014838980367</v>
+        <v>34.821062496339252</v>
       </c>
       <c r="D26">
-        <v>59.373902917276752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
+        <v>52.182644275422341</v>
+      </c>
+      <c r="E26">
+        <v>60000</v>
+      </c>
+      <c r="F26">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>12.110187110187111</v>
+        <v>14.14498610760293</v>
       </c>
       <c r="C27">
-        <v>29.28794178794179</v>
+        <v>27.936347562515785</v>
       </c>
       <c r="D27">
-        <v>58.601871101871104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
+        <v>57.918666329881283</v>
+      </c>
+      <c r="E27">
+        <v>50000</v>
+      </c>
+      <c r="F27">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>13.327987119160248</v>
+        <v>11.373223548935114</v>
       </c>
       <c r="C28">
-        <v>20.287946679314519</v>
+        <v>31.513250137028614</v>
       </c>
       <c r="D28">
-        <v>66.384066201525229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
+        <v>57.113526314036264</v>
+      </c>
+      <c r="E28">
+        <v>60000</v>
+      </c>
+      <c r="F28">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>14.267181045372299</v>
+        <v>15.286052918188226</v>
       </c>
       <c r="C29">
-        <v>32.149807107985389</v>
+        <v>22.227561022487027</v>
       </c>
       <c r="D29">
-        <v>53.583011846642314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
+        <v>62.486386059324751</v>
+      </c>
+      <c r="E29">
+        <v>50000</v>
+      </c>
+      <c r="F29">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>17.786069651741293</v>
+        <v>13.179347826086957</v>
       </c>
       <c r="C30">
-        <v>25.621890547263682</v>
+        <v>32.336956521739133</v>
       </c>
       <c r="D30">
-        <v>56.592039800995018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
+        <v>54.483695652173914</v>
+      </c>
+      <c r="E30">
+        <v>45000</v>
+      </c>
+      <c r="F30">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>13.462674807957455</v>
+        <v>12.583210059171599</v>
       </c>
       <c r="C31">
-        <v>37.08883198739413</v>
+        <v>34.079142011834321</v>
       </c>
       <c r="D31">
-        <v>49.448493204648415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
+        <v>53.33764792899408</v>
+      </c>
+      <c r="E31">
+        <v>50000</v>
+      </c>
+      <c r="F31">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>17.073359073359072</v>
+        <v>17.328721267574203</v>
       </c>
       <c r="C32">
-        <v>28.24710424710425</v>
+        <v>28.14847876218106</v>
       </c>
       <c r="D32">
-        <v>54.679536679536675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
+        <v>54.522799970244741</v>
+      </c>
+      <c r="E32">
+        <v>50000</v>
+      </c>
+      <c r="F32">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>18.282438976183418</v>
+        <v>16.315237095696975</v>
       </c>
       <c r="C33">
-        <v>26.089534538986065</v>
+        <v>27.688197691060012</v>
       </c>
       <c r="D33">
-        <v>55.628026484830514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
+        <v>55.996565213243009</v>
+      </c>
+      <c r="E33">
+        <v>45000</v>
+      </c>
+      <c r="F33">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>14.675880223757815</v>
+        <v>14.691943127962084</v>
       </c>
       <c r="C34">
-        <v>28.397499177360974</v>
+        <v>29.794628751974724</v>
       </c>
       <c r="D34">
-        <v>56.926620598881208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
+        <v>55.513428120063189</v>
+      </c>
+      <c r="E34">
+        <v>40000</v>
+      </c>
+      <c r="F34">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>13.072953556612365</v>
+        <v>12.731346191311124</v>
       </c>
       <c r="C35">
-        <v>34.979257310533242</v>
+        <v>34.697058250535747</v>
       </c>
       <c r="D35">
-        <v>51.947789132854396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
+        <v>52.571595558153128</v>
+      </c>
+      <c r="E35">
+        <v>50000</v>
+      </c>
+      <c r="F35">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>8.190066410999906</v>
+        <v>7.551061051979377</v>
       </c>
       <c r="C36">
-        <v>27.59143204564587</v>
+        <v>35.767298798433316</v>
       </c>
       <c r="D36">
-        <v>64.218501543354222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
+        <v>56.681640149587309</v>
+      </c>
+      <c r="E36">
+        <v>75000</v>
+      </c>
+      <c r="F36">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>17.097701149425287</v>
+        <v>16.036308623298034</v>
       </c>
       <c r="C37">
-        <v>31.46551724137931</v>
+        <v>39.939485627836611</v>
       </c>
       <c r="D37">
-        <v>51.436781609195407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
+        <v>44.024205748865356</v>
+      </c>
+      <c r="E37">
+        <v>40000</v>
+      </c>
+      <c r="F37">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>13.348403661531592</v>
+        <v>15.155096011816838</v>
       </c>
       <c r="C38">
-        <v>31.095110515740121</v>
+        <v>39.119108365784875</v>
       </c>
       <c r="D38">
-        <v>55.556485822728284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
+        <v>45.72579562239828</v>
+      </c>
+      <c r="E38">
+        <v>75000</v>
+      </c>
+      <c r="F38">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -8936,9 +9178,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8946,12 +9188,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>41.006570000000004</v>
@@ -8959,7 +9201,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>18.763949100000001</v>
@@ -8967,7 +9209,7 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>18.078576099999999</v>
@@ -8975,7 +9217,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>38.972434499999999</v>
@@ -8983,7 +9225,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>43.612084899999999</v>
@@ -8991,7 +9233,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>38.353187499999997</v>
@@ -8999,7 +9241,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>48.016970200000003</v>
@@ -9007,7 +9249,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>38.731890499999999</v>
@@ -9015,7 +9257,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>27.643549499999999</v>
@@ -9023,7 +9265,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>41.177891099999997</v>
@@ -9031,7 +9273,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -9039,7 +9281,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -9047,7 +9289,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>44.341147900000003</v>
@@ -9055,7 +9297,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>52.1748859</v>
@@ -9063,7 +9305,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>20.052557499999999</v>
@@ -9071,7 +9313,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>63.121547</v>
@@ -9079,7 +9321,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>44.963911400000001</v>
@@ -9087,7 +9329,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>37.5805966</v>
@@ -9095,7 +9337,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>63.3312223</v>
@@ -9103,7 +9345,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>17.522994499999999</v>
@@ -9111,7 +9353,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>37.589607700000002</v>
@@ -9119,7 +9361,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>31.638268</v>
@@ -9127,7 +9369,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>48.417590099999998</v>
@@ -9135,7 +9377,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>13.093693999999999</v>
@@ -9143,7 +9385,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>45.869506800000003</v>
@@ -9151,7 +9393,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1.3422472000000001</v>
@@ -9159,7 +9401,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>19.926262900000001</v>
@@ -9167,7 +9409,7 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>100</v>
@@ -9175,7 +9417,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>69.603960400000005</v>
@@ -9183,7 +9425,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>29.066136100000001</v>
@@ -9191,7 +9433,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>42.096473500000002</v>
@@ -9199,7 +9441,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -9207,7 +9449,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>33.066275300000001</v>
@@ -9215,7 +9457,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>5.5900398300000003</v>
@@ -9223,7 +9465,7 @@
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>100</v>
@@ -9231,7 +9473,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>22.603409500000001</v>
@@ -9239,17 +9481,17 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>18.9683624</v>
@@ -9268,9 +9510,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9278,12 +9520,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>58.732079484687674</v>
@@ -9291,7 +9533,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>74.244870164609324</v>
@@ -9299,7 +9541,7 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>92.771882041379243</v>
@@ -9307,7 +9549,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>52.917350135935052</v>
@@ -9315,7 +9557,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>39.351083029965814</v>
@@ -9323,7 +9565,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>39.053154561899532</v>
@@ -9331,7 +9573,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>94.26538409856218</v>
@@ -9339,7 +9581,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>94.314721945149472</v>
@@ -9347,7 +9589,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>162.86957812102514</v>
@@ -9355,7 +9597,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>62.805551457799339</v>
@@ -9363,7 +9605,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>66.395357406761264</v>
@@ -9371,7 +9613,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>19.138477519380412</v>
@@ -9379,7 +9621,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>-0.8059026449699086</v>
@@ -9387,7 +9629,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>90.735785323425333</v>
@@ -9395,7 +9637,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>75.236193437638491</v>
@@ -9403,7 +9645,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>51.990265158080234</v>
@@ -9411,7 +9653,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>77.98223221103099</v>
@@ -9419,7 +9661,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>17.959643504997583</v>
@@ -9427,7 +9669,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>45.977796632522697</v>
@@ -9435,7 +9677,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>61.999248430924148</v>
@@ -9443,7 +9685,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>73.264336855392429</v>
@@ -9451,7 +9693,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>56.920955318619235</v>
@@ -9459,7 +9701,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>-12.426203565279046</v>
@@ -9467,7 +9709,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>44.532149578640954</v>
@@ -9475,7 +9717,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1.5612208544200119</v>
@@ -9483,7 +9725,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>61.923165803604192</v>
@@ -9491,7 +9733,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>63.849595385163994</v>
@@ -9499,7 +9741,7 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>17.469328435268373</v>
@@ -9507,7 +9749,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>59.295588400040316</v>
@@ -9515,7 +9757,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>20.314113397062499</v>
@@ -9523,7 +9765,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>31.695238936701077</v>
@@ -9531,7 +9773,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>54.580128748576271</v>
@@ -9539,7 +9781,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>78.993908697516659</v>
@@ -9547,7 +9789,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>79.31577470174885</v>
@@ -9555,7 +9797,7 @@
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>56.044876125408919</v>
@@ -9563,7 +9805,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>61.762876928053664</v>
@@ -9571,7 +9813,7 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>46.909192146339393</v>
@@ -9579,7 +9821,7 @@
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>73.162172313369055</v>
@@ -9587,7 +9829,7 @@
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>68.795199426291362</v>
@@ -9606,9 +9848,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9616,12 +9858,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3088.37</v>
@@ -9629,7 +9871,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>678.61</v>
@@ -9637,7 +9879,7 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1882.61</v>
@@ -9645,7 +9887,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1084.3800000000001</v>
@@ -9653,7 +9895,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>688.33</v>
@@ -9661,7 +9903,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1806.36</v>
@@ -9669,7 +9911,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2987.27</v>
@@ -9677,7 +9919,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1988.34</v>
@@ -9685,7 +9927,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3054.77</v>
@@ -9693,7 +9935,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>5133.7700000000004</v>
@@ -9701,7 +9943,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1222.8399999999999</v>
@@ -9709,7 +9951,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>4529.2700000000004</v>
@@ -9717,7 +9959,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>10226.41</v>
@@ -9725,7 +9967,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>533.19000000000005</v>
@@ -9733,7 +9975,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2801.65</v>
@@ -9741,7 +9983,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1790.91</v>
@@ -9749,7 +9991,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1641.85</v>
@@ -9757,7 +9999,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>6135.55</v>
@@ -9765,7 +10007,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>8358.26</v>
@@ -9773,7 +10015,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>4721.87</v>
@@ -9781,7 +10023,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1193.78</v>
@@ -9789,7 +10031,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2308.96</v>
@@ -9797,7 +10039,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>9929.7000000000007</v>
@@ -9805,7 +10047,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>1192.5</v>
@@ -9813,7 +10055,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>2048.5100000000002</v>
@@ -9821,7 +10063,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>465.6</v>
@@ -9829,7 +10071,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>743.91</v>
@@ -9837,7 +10079,7 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>831.19</v>
@@ -9845,7 +10087,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1332.76</v>
@@ -9853,7 +10095,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>3231.41</v>
@@ -9861,7 +10103,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>2038.53</v>
@@ -9869,7 +10111,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>3151.67</v>
@@ -9877,7 +10119,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>2395.4</v>
@@ -9885,7 +10127,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>726.42</v>
@@ -9893,7 +10135,7 @@
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>1715.23</v>
@@ -9901,7 +10143,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>718.34</v>
@@ -9909,7 +10151,7 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>76753.100000000006</v>
@@ -9917,7 +10159,7 @@
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>21625.419999999995</v>
@@ -9925,7 +10167,7 @@
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>98378.54</v>
@@ -9944,9 +10186,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9954,12 +10196,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>51.709467797252273</v>
@@ -9967,7 +10209,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>26.420215850930578</v>
@@ -9975,7 +10217,7 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>54.473764224666823</v>
@@ -9983,7 +10225,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>26.023875345727511</v>
@@ -9991,7 +10233,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>7.9808410621358936</v>
@@ -9999,7 +10241,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>28.454964109036961</v>
@@ -10007,7 +10249,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>50.486376475511086</v>
@@ -10015,7 +10257,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>55.017468084432238</v>
@@ -10023,7 +10265,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>77.987738902437826</v>
@@ -10031,7 +10273,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>51.476127944181371</v>
@@ -10039,7 +10281,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>8.3784517299074288</v>
@@ -10047,7 +10289,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>61.735417136977908</v>
@@ -10055,7 +10297,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>74.944020582882956</v>
@@ -10063,7 +10305,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>73.008928282600934</v>
@@ -10071,7 +10313,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>52.303592231006725</v>
@@ -10079,7 +10321,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>50.857891156116168</v>
@@ -10087,7 +10329,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>68.159656908974625</v>
@@ -10095,7 +10337,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>60.305160829265517</v>
@@ -10103,7 +10345,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>75.370497694974787</v>
@@ -10111,7 +10353,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>58.423354766014313</v>
@@ -10119,7 +10361,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
         <v>29.211597306287594</v>
@@ -10127,7 +10369,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
         <v>39.658844697482849</v>
@@ -10135,7 +10377,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>78.448448687472933</v>
@@ -10143,7 +10385,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
         <v>34.585057222557651</v>
@@ -10151,7 +10393,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
         <v>16.718341323010382</v>
@@ -10159,7 +10401,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
         <v>35.966322986683849</v>
@@ -10167,7 +10409,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
         <v>11.878202559099893</v>
@@ -10175,7 +10417,7 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
         <v>12.256714327289789</v>
@@ -10183,7 +10425,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
         <v>53.244062648188716</v>
@@ -10191,7 +10433,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4">
         <v>26.68670326012484</v>
@@ -10199,7 +10441,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>48.69689049398341</v>
@@ -10207,7 +10449,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4">
         <v>58.795929010016913</v>
@@ -10215,7 +10457,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>43.859043421557985</v>
@@ -10223,7 +10465,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4">
         <v>15.34319574598717</v>
@@ -10231,7 +10473,7 @@
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4">
         <v>29.022572695906675</v>
@@ -10239,7 +10481,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4">
         <v>16.508060157863962</v>
@@ -10247,7 +10489,7 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4">
         <v>57.390978417712113</v>
@@ -10255,7 +10497,7 @@
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4">
         <v>49.937588084136188</v>
@@ -10263,7 +10505,7 @@
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4">
         <v>55.752573901777161</v>
@@ -10278,14 +10520,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
@@ -10293,18 +10535,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>9738</v>
@@ -10312,10 +10554,10 @@
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>57213</v>
@@ -10323,10 +10565,10 @@
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>639387</v>
@@ -10334,10 +10576,10 @@
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>9747</v>
@@ -10345,10 +10587,10 @@
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>13446</v>
@@ -10356,10 +10598,10 @@
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>16176</v>
@@ -10367,10 +10609,10 @@
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>9748</v>
@@ -10378,10 +10620,10 @@
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>6413</v>
@@ -10389,10 +10631,10 @@
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>90500</v>
@@ -10400,10 +10642,10 @@
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>22988</v>
@@ -10411,10 +10653,10 @@
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>655</v>
@@ -10422,10 +10664,10 @@
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>2251</v>
@@ -10433,10 +10675,10 @@
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>2756</v>
@@ -10444,10 +10686,10 @@
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>7688</v>
@@ -10455,10 +10697,10 @@
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>80051</v>
@@ -10466,10 +10708,10 @@
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>6674</v>
@@ -10477,10 +10719,10 @@
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>37201</v>
@@ -10488,10 +10730,10 @@
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>21138</v>
@@ -10499,10 +10741,10 @@
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>2765</v>
@@ -10510,10 +10752,10 @@
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>165997</v>
@@ -10521,10 +10763,10 @@
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>10381</v>
@@ -10532,10 +10774,10 @@
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>52736</v>
@@ -10543,10 +10785,10 @@
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>10997</v>
@@ -10554,10 +10796,10 @@
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>166756</v>
@@ -10565,10 +10807,10 @@
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>3340</v>
@@ -10576,10 +10818,10 @@
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>639387</v>
@@ -10587,10 +10829,10 @@
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>166756</v>
@@ -10598,10 +10840,10 @@
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>371</v>
@@ -10609,10 +10851,10 @@
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>5176</v>
@@ -10620,10 +10862,10 @@
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>17346</v>
@@ -10631,10 +10873,10 @@
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>13103</v>
@@ -10642,10 +10884,10 @@
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>1990</v>
@@ -10653,10 +10895,10 @@
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>15320</v>
@@ -10664,10 +10906,10 @@
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>639387</v>
@@ -10675,10 +10917,10 @@
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>503</v>
@@ -10686,10 +10928,10 @@
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>33662</v>
@@ -10717,9 +10959,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -10727,517 +10969,517 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -11262,43 +11504,43 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -11312,7 +11554,7 @@
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -11321,14 +11563,14 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -11337,16 +11579,16 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -11360,7 +11602,7 @@
     </row>
     <row r="6" spans="1:10" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -11374,17 +11616,17 @@
     </row>
     <row r="7" spans="1:10" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -11394,7 +11636,7 @@
     </row>
     <row r="8" spans="1:10" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -11408,14 +11650,14 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -11426,7 +11668,7 @@
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -11440,17 +11682,17 @@
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -11460,7 +11702,7 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -11474,7 +11716,7 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -11488,10 +11730,10 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -11504,7 +11746,7 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -11518,15 +11760,15 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -11536,7 +11778,7 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -11547,18 +11789,18 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -11568,7 +11810,7 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -11576,7 +11818,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -11584,7 +11826,7 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -11598,47 +11840,47 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -11647,16 +11889,16 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -11670,27 +11912,27 @@
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -11704,43 +11946,43 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -11754,25 +11996,25 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -11782,13 +12024,13 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -11798,13 +12040,13 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -11818,7 +12060,7 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -11829,30 +12071,30 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -11866,18 +12108,18 @@
     </row>
     <row r="37" spans="1:10" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -11895,9 +12137,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -11905,12 +12147,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>43921</v>
@@ -11918,7 +12160,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>58655</v>
@@ -11926,7 +12168,7 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>76597</v>
@@ -11934,7 +12176,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>52583</v>
@@ -11942,7 +12184,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>59714</v>
@@ -11950,7 +12192,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>43308</v>
@@ -11958,7 +12200,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>44524</v>
@@ -11966,7 +12208,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>46396</v>
@@ -11974,7 +12216,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>63680</v>
@@ -11982,7 +12224,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>45812</v>
@@ -11990,7 +12232,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>42976</v>
@@ -11998,7 +12240,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>45357</v>
@@ -12006,7 +12248,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>41797</v>
@@ -12014,7 +12256,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>62935</v>
@@ -12022,7 +12264,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>50851</v>
@@ -12030,7 +12272,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>50339</v>
@@ -12038,7 +12280,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>43046</v>
@@ -12046,7 +12288,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>43522</v>
@@ -12054,7 +12296,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>36627</v>
@@ -12062,7 +12304,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>49958</v>
@@ -12070,7 +12312,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
         <v>46061</v>
@@ -12078,7 +12320,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
         <v>52097</v>
@@ -12086,7 +12328,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>42478</v>
@@ -12094,7 +12336,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
         <v>56097</v>
@@ -12102,7 +12344,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
         <v>55440</v>
@@ -12110,7 +12352,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
         <v>64337</v>
@@ -12118,7 +12360,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
         <v>58344</v>
@@ -12126,7 +12368,7 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
         <v>48056</v>
@@ -12134,7 +12376,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
         <v>47500</v>
@@ -12142,7 +12384,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4">
         <v>51887</v>
@@ -12150,7 +12392,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>48617</v>
@@ -12158,7 +12400,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4">
         <v>44953</v>
@@ -12166,7 +12408,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>50973</v>
@@ -12174,7 +12416,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4">
         <v>78010</v>
@@ -12182,7 +12424,7 @@
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4">
         <v>33456</v>
@@ -12190,7 +12432,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4">
         <v>59484</v>
@@ -12198,19 +12440,19 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4">
         <v>59393</v>
